--- a/create_fake_data/excel_input/bben.xlsx
+++ b/create_fake_data/excel_input/bben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Name1</t>
   </si>
@@ -30,16 +30,52 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>AAA2</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>ZR</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>QZ</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -360,7 +396,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,10 +425,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -400,10 +436,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -411,10 +447,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -422,10 +458,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -433,21 +469,29 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
       <c r="C7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -455,10 +499,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -466,10 +510,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
